--- a/GameConfigs/Datas/__enums__.xlsx
+++ b/GameConfigs/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1AAA0-A88D-4E41-AC05-256E9DB382D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482F983-7E21-42FD-93FC-6AF6DAE67EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41640" yWindow="4035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,33 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>unit.GroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +114,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,9 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,6 +566,37 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/GameConfigs/Datas/__enums__.xlsx
+++ b/GameConfigs/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482F983-7E21-42FD-93FC-6AF6DAE67EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D7F990-AE83-4B52-B30C-49AB2E39B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41640" yWindow="4035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
